--- a/data_quarter.xlsx
+++ b/data_quarter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\Desktop\вкр\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\DNS\balance_of_payments_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D06A0829-93D9-41DC-9811-D46B083953D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8F1537-89E6-4F09-AE6B-E77160DA8E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{4D6FCDA9-F986-4B56-9356-AA8DCBE05902}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D6FCDA9-F986-4B56-9356-AA8DCBE05902}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>date</t>
   </si>
@@ -172,51 +172,6 @@
   </si>
   <si>
     <t>r_dif_reserves</t>
-  </si>
-  <si>
-    <t>r_price_cur_purch</t>
-  </si>
-  <si>
-    <t>dum_2012</t>
-  </si>
-  <si>
-    <t>dum_1114</t>
-  </si>
-  <si>
-    <t>dum01</t>
-  </si>
-  <si>
-    <t>dum02</t>
-  </si>
-  <si>
-    <t>dum03</t>
-  </si>
-  <si>
-    <t>dum04</t>
-  </si>
-  <si>
-    <t>dum05</t>
-  </si>
-  <si>
-    <t>dum06</t>
-  </si>
-  <si>
-    <t>dum07</t>
-  </si>
-  <si>
-    <t>dum08</t>
-  </si>
-  <si>
-    <t>dum09</t>
-  </si>
-  <si>
-    <t>dum10</t>
-  </si>
-  <si>
-    <t>dum11</t>
-  </si>
-  <si>
-    <t>dum12</t>
   </si>
 </sst>
 </file>
@@ -570,18 +525,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A7E3F-C9C5-4B1C-8D83-A718E642E720}">
-  <dimension ref="A1:BL57"/>
+  <dimension ref="A1:AW57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,53 +685,8 @@
       <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>38718</v>
       </c>
@@ -885,7 +796,7 @@
         <v>21.430669999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>38808</v>
       </c>
@@ -995,7 +906,7 @@
         <v>40.932250000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>38899</v>
       </c>
@@ -1105,7 +1016,7 @@
         <v>13.825299999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>38991</v>
       </c>
@@ -1215,7 +1126,7 @@
         <v>31.27702</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39083</v>
       </c>
@@ -1325,7 +1236,7 @@
         <v>32.923439999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39173</v>
       </c>
@@ -1435,7 +1346,7 @@
         <v>65.547880000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39264</v>
       </c>
@@ -1545,7 +1456,7 @@
         <v>7.8964699999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39356</v>
       </c>
@@ -1655,7 +1566,7 @@
         <v>42.559730000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>39448</v>
       </c>
@@ -1765,7 +1676,7 @@
         <v>12.09168</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>39539</v>
       </c>
@@ -1875,7 +1786,7 @@
         <v>64.913489999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>39630</v>
       </c>
@@ -1985,7 +1896,7 @@
         <v>8.9063300000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>39722</v>
       </c>
@@ -2095,7 +2006,7 @@
         <v>-124.83611999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>39814</v>
       </c>
@@ -2205,7 +2116,7 @@
         <v>-30.513459999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>39904</v>
       </c>
@@ -2315,7 +2226,7 @@
         <v>14.20349</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>39995</v>
       </c>
